--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -396,63 +396,76 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <f>1/C1</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <f>F1-F2</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>F3</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3227513227513228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>30</v>
+        <v>79.365079365079367</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -437,8 +437,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <f>F3</f>
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -447,7 +446,7 @@
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>0.75600000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -456,7 +455,7 @@
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>1.3227513227513228</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -465,7 +464,7 @@
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>79.365079365079367</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\TomometerTest\TTestApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\TonometerTest\TTestApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>5908</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -425,46 +425,58 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" s="1">
         <f>F1-F2</f>
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>75</v>
+        <v>300</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8/60</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <f>1/E8</f>
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8*C1</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Частота дискретизации</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Ударов в минуту</t>
+  </si>
+  <si>
+    <t>У.Е</t>
+  </si>
+  <si>
+    <t>mmHg</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -479,6 +485,64 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2861343</v>
+      </c>
+      <c r="B15" s="1">
+        <v>160</v>
+      </c>
+      <c r="C15" s="1">
+        <f>A15/B15</f>
+        <v>17883.393749999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2650822</v>
+      </c>
+      <c r="B16" s="1">
+        <v>149</v>
+      </c>
+      <c r="C16" s="1">
+        <f>A16/B16</f>
+        <v>17790.75167785235</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>SUM(A15:A21)</f>
+        <v>5512165</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B15:B21)</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>A22/D16</f>
+        <v>2756082.5</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B22/D16</f>
+        <v>154.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -106,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -393,7 +394,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -494,53 +495,63 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2861343</v>
-      </c>
-      <c r="B15" s="1">
-        <v>160</v>
-      </c>
-      <c r="C15" s="1">
-        <f>A15/B15</f>
-        <v>17883.393749999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2650822</v>
+      <c r="A16" s="3">
+        <v>2507919</v>
       </c>
       <c r="B16" s="1">
-        <v>149</v>
-      </c>
-      <c r="C16" s="1">
-        <f>A16/B16</f>
-        <v>17790.75167785235</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2505859</v>
+      </c>
+      <c r="B17" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2496083</v>
+      </c>
+      <c r="B18" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f>SUM(A15:A21)</f>
-        <v>5512165</v>
+        <v>7509861</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B15:B21)</f>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f>A22/D16</f>
-        <v>2756082.5</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>A22/3</f>
+        <v>2503287</v>
       </c>
       <c r="B23" s="1">
-        <f>B22/D16</f>
-        <v>154.5</v>
+        <f>B22/3</f>
+        <v>141.66666666666666</v>
+      </c>
+      <c r="C23" s="1">
+        <f>A23/B23</f>
+        <v>17670.261176470591</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,26 +499,26 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>2507919</v>
+        <v>5651</v>
       </c>
       <c r="B16" s="1">
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>2505859</v>
+        <v>5356</v>
       </c>
       <c r="B17" s="1">
-        <v>142</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2496083</v>
+        <v>5406</v>
       </c>
       <c r="B18" s="1">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,25 +533,25 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>SUM(A15:A21)</f>
-        <v>7509861</v>
+        <v>16413</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B15:B21)</f>
-        <v>425</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>A22/3</f>
-        <v>2503287</v>
+        <v>5471</v>
       </c>
       <c r="B23" s="1">
         <f>B22/3</f>
-        <v>141.66666666666666</v>
+        <v>196.66666666666666</v>
       </c>
       <c r="C23" s="1">
         <f>A23/B23</f>
-        <v>17670.261176470591</v>
+        <v>27.818644067796612</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -498,31 +498,43 @@
       <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>5651</v>
-      </c>
-      <c r="B16" s="1">
-        <v>203</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>5356</v>
+        <v>2931</v>
       </c>
       <c r="B17" s="1">
-        <v>192</v>
+        <v>142</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C19" si="0">A17/B17</f>
+        <v>20.640845070422536</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>5406</v>
+        <v>2941</v>
       </c>
       <c r="B18" s="1">
-        <v>195</v>
+        <v>142</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>20.711267605633804</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>3010</v>
+      </c>
+      <c r="B19" s="1">
+        <v>146</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>20.616438356164384</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -533,25 +545,25 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>SUM(A15:A21)</f>
-        <v>16413</v>
+        <v>8882</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B15:B21)</f>
-        <v>590</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>A22/3</f>
-        <v>5471</v>
+        <v>2960.6666666666665</v>
       </c>
       <c r="B23" s="1">
         <f>B22/3</f>
-        <v>196.66666666666666</v>
+        <v>143.33333333333334</v>
       </c>
       <c r="C23" s="1">
         <f>A23/B23</f>
-        <v>27.818644067796612</v>
+        <v>20.655813953488369</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,43 +501,31 @@
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2931</v>
-      </c>
-      <c r="B17" s="1">
-        <v>142</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:C19" si="0">A17/B17</f>
-        <v>20.640845070422536</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2941</v>
+        <v>4286</v>
       </c>
       <c r="B18" s="1">
-        <v>142</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>20.711267605633804</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>3010</v>
+        <v>3960</v>
       </c>
       <c r="B19" s="1">
-        <v>146</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>20.616438356164384</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>195</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -545,25 +533,25 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>SUM(A15:A21)</f>
-        <v>8882</v>
+        <v>12246</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B15:B21)</f>
-        <v>430</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>A22/3</f>
-        <v>2960.6666666666665</v>
+        <v>4082</v>
       </c>
       <c r="B23" s="1">
         <f>B22/3</f>
-        <v>143.33333333333334</v>
+        <v>197.66666666666666</v>
       </c>
       <c r="C23" s="1">
         <f>A23/B23</f>
-        <v>20.655813953488369</v>
+        <v>20.650927487352448</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>50</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>0.2</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>5</v>
+        <v>1.5432098765432098</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,19 +471,19 @@
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>300</v>
+        <v>92.592592592592595</v>
       </c>
       <c r="E8" s="1">
         <f>C8/60</f>
-        <v>5</v>
+        <v>1.5432098765432098</v>
       </c>
       <c r="F8" s="1">
         <f>1/E8</f>
-        <v>0.2</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="G8" s="1">
         <f>F8*C1</f>
-        <v>50</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>162</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>0.64800000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>1.5432098765432098</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,19 +471,19 @@
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>92.592592592592595</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <f>C8/60</f>
-        <v>1.5432098765432098</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1">
         <f>1/E8</f>
-        <v>0.64800000000000002</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <f>F8*C1</f>
-        <v>162</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,19 +471,19 @@
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <f>C8/60</f>
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1">
         <f>1/E8</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <f>F8*C1</f>
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -498,34 +498,34 @@
       <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>5651</v>
-      </c>
-      <c r="B16" s="1">
-        <v>203</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>5356</v>
-      </c>
-      <c r="B17" s="1">
-        <v>192</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>5406</v>
+        <v>4286</v>
       </c>
       <c r="B18" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3960</v>
+      </c>
+      <c r="B19" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B20" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -533,25 +533,25 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>SUM(A15:A21)</f>
-        <v>16413</v>
+        <v>12246</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B15:B21)</f>
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>A22/3</f>
-        <v>5471</v>
+        <v>4082</v>
       </c>
       <c r="B23" s="1">
         <f>B22/3</f>
-        <v>196.66666666666666</v>
+        <v>197.66666666666666</v>
       </c>
       <c r="C23" s="1">
         <f>A23/B23</f>
-        <v>27.818644067796612</v>
+        <v>20.650927487352448</v>
       </c>
     </row>
   </sheetData>

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,19 +471,19 @@
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>30</v>
+        <v>750</v>
       </c>
       <c r="E8" s="1">
         <f>C8/60</f>
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="F8" s="1">
         <f>1/E8</f>
-        <v>2</v>
+        <v>0.08</v>
       </c>
       <c r="G8" s="1">
         <f>F8*C1</f>
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Частота дискретизации</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>mmHg</t>
+  </si>
+  <si>
+    <t>уд/мин</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -403,12 +406,12 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -417,13 +420,13 @@
         <v>5908</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <f>1/C1</f>
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -432,61 +435,78 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" s="1">
         <f>F1-F2</f>
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <f>C4*C2</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>400</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <f>1/C5</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
         <f>C7*60</f>
-        <v>750</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <f>C8/60</f>
-        <v>12.5</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1">
         <f>1/E8</f>
-        <v>0.08</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <f>F8*C1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -494,10 +514,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/TTestApp/ms_to_hr.xlsx
+++ b/TTestApp/ms_to_hr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Частота дискретизации</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>mmHg</t>
+  </si>
+  <si>
+    <t>уд/мин</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -403,12 +406,12 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -417,13 +420,13 @@
         <v>5908</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <f>1/C1</f>
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -432,22 +435,25 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" s="1">
         <f>F1-F2</f>
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -455,8 +461,22 @@
         <f>C4*C2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>400</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,7 +485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -483,10 +503,10 @@
       </c>
       <c r="G8" s="1">
         <f>F8*C1</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -494,10 +514,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
